--- a/medicine/Enfance/Gjergj_Xhuvani/Gjergj_Xhuvani.xlsx
+++ b/medicine/Enfance/Gjergj_Xhuvani/Gjergj_Xhuvani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gjergj Xhuvani, né le 20 décembre 1963 à Tirana (Albanie) et mort le 14 août 2019 à Rome (Italie)[1], est un réalisateur albanais, également romancier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gjergj Xhuvani, né le 20 décembre 1963 à Tirana (Albanie) et mort le 14 août 2019 à Rome (Italie), est un réalisateur albanais, également romancier.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gjergj Xhuvani manifeste très tôt un intérêt pour la mise en scène et crée une petite troupe de comédiens avec ses camarades. C'est bien entendu dans la section Théâtre de l'Académie des beaux-arts de Tirana qu'il s'inscrit en 1982.
 Diplômé en 1986, il commence par travailler comme assistant sur de nombreux tournages, pour le compte de l'Alba Film Studio de Tirana. Il réalise son premier court métrage de fiction, Blanc et Noir en 1991, puis un second, Le Dernier Dimanche en 1993. Ce dernier remporte le prix spécial du Jury au Festival de la Méditerranée à Bastia. L'année suivante, il enchaîne avec un moyen métrage, Un jour dans la vie.
@@ -549,7 +563,9 @@
           <t>Filmographie (en tant que réalisateur)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1990 : Noir et Blanc (Bardhë e zi)
@@ -592,7 +608,9 @@
           <t>Œuvre littéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux romans pour enfants :
 The Boat of the Poor
